--- a/my_package/traj_excel_30/tested_robot_traj_5_.xlsx
+++ b/my_package/traj_excel_30/tested_robot_traj_5_.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.1619081784284657</v>
+        <v>0.1619081784284657</v>
       </c>
       <c r="C1" t="n">
-        <v>1.376275516565805</v>
+        <v>0.1945208102290912</v>
       </c>
       <c r="D1" t="n">
-        <v>0.672860002190442</v>
+        <v>-0.672860002190442</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8673805046080227</v>
+        <v>0.7034158221868738</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796280873402</v>
+        <v>1.570796280873402</v>
       </c>
       <c r="G1" t="n">
         <v>-1.408888145739562</v>
@@ -449,19 +449,19 @@
         <v>0.2073985369335523</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1636540555887594</v>
+        <v>0.1636540555887594</v>
       </c>
       <c r="C2" t="n">
-        <v>1.376316972899537</v>
+        <v>0.1944793538953593</v>
       </c>
       <c r="D2" t="n">
-        <v>0.672975519928842</v>
+        <v>-0.672975519928842</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8674545675206372</v>
+        <v>0.7033417592742593</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796281100031</v>
+        <v>1.570796281100031</v>
       </c>
       <c r="G2" t="n">
         <v>-1.407142268608938</v>
@@ -472,19 +472,19 @@
         <v>0.4147970738671046</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1745421441903155</v>
+        <v>0.1745421441903155</v>
       </c>
       <c r="C3" t="n">
-        <v>1.376575513560377</v>
+        <v>0.1942208132345191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6736959413876683</v>
+        <v>-0.6736959413876683</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8679164577228663</v>
+        <v>0.7028798690720303</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796282513388</v>
+        <v>1.570796282513388</v>
       </c>
       <c r="G3" t="n">
         <v>-1.396254180192416</v>
@@ -495,19 +495,19 @@
         <v>0.6221956108006569</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2002919558244658</v>
+        <v>0.2002919558244658</v>
       </c>
       <c r="C4" t="n">
-        <v>1.377186949925384</v>
+        <v>0.1936093768695125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.675399703869848</v>
+        <v>-0.675399703869848</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8690088060806268</v>
+        <v>0.7017875207142698</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.57079628585591</v>
+        <v>1.57079628585591</v>
       </c>
       <c r="G4" t="n">
         <v>-1.370504368995864</v>
@@ -518,19 +518,19 @@
         <v>0.8295941477342091</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.243380444329976</v>
+        <v>0.243380444329976</v>
       </c>
       <c r="C5" t="n">
-        <v>1.378210097945251</v>
+        <v>0.1925862288496451</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6782506975459399</v>
+        <v>-0.6782506975459399</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8708366889531739</v>
+        <v>0.6999596378417227</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796291449124</v>
+        <v>1.570796291449124</v>
       </c>
       <c r="G5" t="n">
         <v>-1.327415881222608</v>
@@ -541,19 +541,19 @@
         <v>1.036992684667762</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3035824320851401</v>
+        <v>0.3035824320851401</v>
       </c>
       <c r="C6" t="n">
-        <v>1.379639610715371</v>
+        <v>0.1911567160795255</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6822340233095296</v>
+        <v>-0.6822340233095296</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8733905539442115</v>
+        <v>0.6974057728506851</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796299263802</v>
+        <v>1.570796299263802</v>
       </c>
       <c r="G6" t="n">
         <v>-1.267213894490529</v>
@@ -564,19 +564,19 @@
         <v>1.244391221601314</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3785110362998748</v>
+        <v>0.3785110362998748</v>
       </c>
       <c r="C7" t="n">
-        <v>1.381418811046892</v>
+        <v>0.1893775157480047</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6871917506326238</v>
+        <v>-0.6871917506326238</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8765691456530029</v>
+        <v>0.6942271811418936</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.570796308990106</v>
+        <v>1.570796308990106</v>
       </c>
       <c r="G7" t="n">
         <v>-1.192285291549146</v>
@@ -587,19 +587,19 @@
         <v>1.451789758534866</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4641580953078138</v>
+        <v>0.4641580953078138</v>
       </c>
       <c r="C8" t="n">
-        <v>1.383452524037781</v>
+        <v>0.1873438027571155</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6928586754210456</v>
+        <v>-0.6928586754210456</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8802024314254805</v>
+        <v>0.6905938953694161</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.570796320107748</v>
+        <v>1.570796320107748</v>
       </c>
       <c r="G8" t="n">
         <v>-1.106638233996711</v>
@@ -610,19 +610,19 @@
         <v>1.659188295468418</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5554345948584021</v>
+        <v>0.5554345948584021</v>
       </c>
       <c r="C9" t="n">
-        <v>1.385619909643885</v>
+        <v>0.1851764171510118</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6988980778698286</v>
+        <v>-0.6988980778698286</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8840745271053564</v>
+        <v>0.6867217996895402</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.570796331956135</v>
+        <v>1.570796331956135</v>
       </c>
       <c r="G9" t="n">
         <v>-1.015361735997295</v>
@@ -633,19 +633,19 @@
         <v>1.866586832401971</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.6467110944089904</v>
+        <v>0.6467110944089904</v>
       </c>
       <c r="C10" t="n">
-        <v>1.387787295249989</v>
+        <v>0.183009031544908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7049374803186115</v>
+        <v>-0.7049374803186115</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8879466227852323</v>
+        <v>0.6828497040096643</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.570796343804521</v>
+        <v>1.570796343804521</v>
       </c>
       <c r="G10" t="n">
         <v>-0.9240852379978779</v>
@@ -656,19 +656,19 @@
         <v>2.073985369335523</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.7323581534169294</v>
+        <v>0.7323581534169294</v>
       </c>
       <c r="C11" t="n">
-        <v>1.389821008240878</v>
+        <v>0.1809753185540188</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7106044051070333</v>
+        <v>-0.7106044051070333</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8915799085577099</v>
+        <v>0.6792164182371867</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.570796354922163</v>
+        <v>1.570796354922163</v>
       </c>
       <c r="G11" t="n">
         <v>-0.8384381804454427</v>
@@ -679,19 +679,19 @@
         <v>2.281383906269075</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.8072867576316641</v>
+        <v>0.8072867576316641</v>
       </c>
       <c r="C12" t="n">
-        <v>1.391600208572399</v>
+        <v>0.179196118222498</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7155621324301276</v>
+        <v>-0.7155621324301276</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8947585002665013</v>
+        <v>0.6760378265283953</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.570796364648468</v>
+        <v>1.570796364648468</v>
       </c>
       <c r="G12" t="n">
         <v>-0.7635095775040601</v>
@@ -702,19 +702,19 @@
         <v>2.488782443202628</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.867488745386828</v>
+        <v>0.867488745386828</v>
       </c>
       <c r="C13" t="n">
-        <v>1.393029721342518</v>
+        <v>0.1777666054523784</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7195454581937172</v>
+        <v>-0.7195454581937172</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8973123652575389</v>
+        <v>0.6734839615373577</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.570796372463145</v>
+        <v>1.570796372463145</v>
       </c>
       <c r="G13" t="n">
         <v>-0.703307590771981</v>
@@ -725,19 +725,19 @@
         <v>2.69618098013618</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.9105772338923382</v>
+        <v>0.9105772338923382</v>
       </c>
       <c r="C14" t="n">
-        <v>1.394052869362385</v>
+        <v>0.1767434574325111</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7223964518698091</v>
+        <v>-0.7223964518698091</v>
       </c>
       <c r="E14" t="n">
-        <v>0.899140248130086</v>
+        <v>0.6716560786648106</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.57079637805636</v>
+        <v>1.57079637805636</v>
       </c>
       <c r="G14" t="n">
         <v>-0.6602191029987254</v>
@@ -748,19 +748,19 @@
         <v>2.903579517069732</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9363270455264889</v>
+        <v>0.9363270455264889</v>
       </c>
       <c r="C15" t="n">
-        <v>1.394664305727392</v>
+        <v>0.1761320210675044</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7241002143519887</v>
+        <v>-0.7241002143519887</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9002325964878465</v>
+        <v>0.6705637303070501</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.570796381398882</v>
+        <v>1.570796381398882</v>
       </c>
       <c r="G15" t="n">
         <v>-0.6344692918021734</v>
@@ -771,19 +771,19 @@
         <v>3.110978054003284</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9472151341280449</v>
+        <v>0.9472151341280449</v>
       </c>
       <c r="C16" t="n">
-        <v>1.394922846388232</v>
+        <v>0.1758734804066642</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7248206358108151</v>
+        <v>-0.7248206358108151</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9006944866900756</v>
+        <v>0.670101840104821</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.570796382812239</v>
+        <v>1.570796382812239</v>
       </c>
       <c r="G16" t="n">
         <v>-0.6235812033856507</v>
@@ -794,19 +794,19 @@
         <v>3.318376590936837</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.9489610112883384</v>
+        <v>0.9489610112883384</v>
       </c>
       <c r="C17" t="n">
-        <v>1.394964302721964</v>
+        <v>0.1758320240729323</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7249361535492151</v>
+        <v>-0.7249361535492151</v>
       </c>
       <c r="E17" t="n">
-        <v>0.90076854960269</v>
+        <v>0.6700277771922065</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.570796383038867</v>
+        <v>1.570796383038867</v>
       </c>
       <c r="G17" t="n">
         <v>-0.6218353262550274</v>
